--- a/工作周期表.xlsx
+++ b/工作周期表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23028" windowHeight="9780"/>
+    <workbookView windowWidth="23040" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>风漫国际旅行·技术部 工作周期表</t>
   </si>
@@ -78,6 +78,42 @@
   </si>
   <si>
     <t>实现自动同步群列表到数据库供后台选取</t>
+  </si>
+  <si>
+    <t>小程序访问速度优化</t>
+  </si>
+  <si>
+    <t>图片、视频等大体积资源加载逻辑</t>
+  </si>
+  <si>
+    <t>CDN加速</t>
+  </si>
+  <si>
+    <t>2 工作日</t>
+  </si>
+  <si>
+    <t>按量收费（较少）</t>
+  </si>
+  <si>
+    <t>资源压缩</t>
+  </si>
+  <si>
+    <t>优化西藏弱网环境下的加载逻辑</t>
+  </si>
+  <si>
+    <t>骨架屏</t>
+  </si>
+  <si>
+    <t>离线缓存</t>
+  </si>
+  <si>
+    <t>小程序新行程需求弹窗</t>
+  </si>
+  <si>
+    <t>小程序AI评论展示及跳转</t>
+  </si>
+  <si>
+    <t>AI智能库的前期素材收集</t>
   </si>
   <si>
     <t>爬虫数据清洗</t>
@@ -97,33 +133,6 @@
   </si>
   <si>
     <t>AI接口接入</t>
-  </si>
-  <si>
-    <t>小程序访问速度优化</t>
-  </si>
-  <si>
-    <t>图片、视频等大体积资源加载逻辑</t>
-  </si>
-  <si>
-    <t>CDN加速</t>
-  </si>
-  <si>
-    <t>2 工作日</t>
-  </si>
-  <si>
-    <t>按量收费（较少）</t>
-  </si>
-  <si>
-    <t>资源压缩</t>
-  </si>
-  <si>
-    <t>优化西藏弱网环境下的加载逻辑</t>
-  </si>
-  <si>
-    <t>骨架屏</t>
-  </si>
-  <si>
-    <t>离线缓存</t>
   </si>
   <si>
     <t>物资管理小程序</t>
@@ -1429,10 +1438,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1520,349 +1529,368 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
     <row r="7" spans="1:8">
       <c r="A7" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" t="s">
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" t="s">
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="15" ht="28.8" spans="1:8">
-      <c r="A15" s="6">
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="20" ht="28.8" spans="1:6">
+      <c r="A20" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" t="s">
+      <c r="D20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" t="s">
+      <c r="E20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6">
         <v>6</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6">
+      <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6">
         <v>7</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" t="s">
+      <c r="B32" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6">
-        <v>8</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="C32" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6">
+        <v>8</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="6">
-        <v>9</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6">
-        <v>10</v>
-      </c>
-      <c r="B40" s="6" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="6">
+        <v>9</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A45:A51"/>
     <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F20:F22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
